--- a/Code/Results/Cases/Case_7_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019306876341636</v>
+        <v>1.020490759373901</v>
       </c>
       <c r="D2">
-        <v>1.034893490809196</v>
+        <v>1.036180612682664</v>
       </c>
       <c r="E2">
-        <v>1.031015470686922</v>
+        <v>1.032579189248166</v>
       </c>
       <c r="F2">
-        <v>1.038382602889056</v>
+        <v>1.039884679573454</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055591884706011</v>
+        <v>1.056386634403826</v>
       </c>
       <c r="J2">
-        <v>1.040925067447192</v>
+        <v>1.042075403626021</v>
       </c>
       <c r="K2">
-        <v>1.045887200361024</v>
+        <v>1.047157896096938</v>
       </c>
       <c r="L2">
-        <v>1.042058981319149</v>
+        <v>1.043602562512908</v>
       </c>
       <c r="M2">
-        <v>1.049331902584778</v>
+        <v>1.050814975170211</v>
       </c>
       <c r="N2">
-        <v>1.042403300438742</v>
+        <v>1.043555270226889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026023094526307</v>
+        <v>1.024757564056574</v>
       </c>
       <c r="D3">
-        <v>1.04010311033327</v>
+        <v>1.039416117614279</v>
       </c>
       <c r="E3">
-        <v>1.036815248651109</v>
+        <v>1.036192549180605</v>
       </c>
       <c r="F3">
-        <v>1.044611451863797</v>
+        <v>1.043952653808933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058092313934738</v>
+        <v>1.057926985446656</v>
       </c>
       <c r="J3">
-        <v>1.045828634949536</v>
+        <v>1.044595335109182</v>
       </c>
       <c r="K3">
-        <v>1.050247343247118</v>
+        <v>1.049568328764263</v>
       </c>
       <c r="L3">
-        <v>1.046997782893291</v>
+        <v>1.046382371314536</v>
       </c>
       <c r="M3">
-        <v>1.054703649667194</v>
+        <v>1.054052420812786</v>
       </c>
       <c r="N3">
-        <v>1.047313831569385</v>
+        <v>1.046078780301797</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030250480655682</v>
+        <v>1.027464745134129</v>
       </c>
       <c r="D4">
-        <v>1.043383653494207</v>
+        <v>1.041470845359133</v>
       </c>
       <c r="E4">
-        <v>1.040471220793059</v>
+        <v>1.038490678632073</v>
       </c>
       <c r="F4">
-        <v>1.048538862563047</v>
+        <v>1.046539935755724</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059652735500861</v>
+        <v>1.058894458317251</v>
       </c>
       <c r="J4">
-        <v>1.048910800486015</v>
+        <v>1.046191068966493</v>
       </c>
       <c r="K4">
-        <v>1.052985221650093</v>
+        <v>1.051093248734977</v>
       </c>
       <c r="L4">
-        <v>1.050104549979521</v>
+        <v>1.048145731287518</v>
       </c>
       <c r="M4">
-        <v>1.058084741608971</v>
+        <v>1.056107328353892</v>
       </c>
       <c r="N4">
-        <v>1.050400374134455</v>
+        <v>1.047676780284219</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032000741601422</v>
+        <v>1.028590406700383</v>
       </c>
       <c r="D5">
-        <v>1.044742157079218</v>
+        <v>1.04232562132282</v>
       </c>
       <c r="E5">
-        <v>1.041986128986911</v>
+        <v>1.039447550217309</v>
       </c>
       <c r="F5">
-        <v>1.050166485728999</v>
+        <v>1.047617214791869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060295519196588</v>
+        <v>1.059294342381772</v>
       </c>
       <c r="J5">
-        <v>1.050185824197071</v>
+        <v>1.046853811125738</v>
       </c>
       <c r="K5">
-        <v>1.054117152127525</v>
+        <v>1.051726218523362</v>
       </c>
       <c r="L5">
-        <v>1.051390334605797</v>
+        <v>1.048878829545224</v>
       </c>
       <c r="M5">
-        <v>1.059484536539492</v>
+        <v>1.056961937912177</v>
       </c>
       <c r="N5">
-        <v>1.051677208525429</v>
+        <v>1.048340463613347</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032293078314272</v>
+        <v>1.028778692887555</v>
       </c>
       <c r="D6">
-        <v>1.044969073729669</v>
+        <v>1.0424686200251</v>
       </c>
       <c r="E6">
-        <v>1.042239226290926</v>
+        <v>1.039607678612164</v>
       </c>
       <c r="F6">
-        <v>1.05043842879625</v>
+        <v>1.047797493912661</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060402685669866</v>
+        <v>1.059361087938778</v>
       </c>
       <c r="J6">
-        <v>1.050398719386282</v>
+        <v>1.046964619813803</v>
       </c>
       <c r="K6">
-        <v>1.054306114662273</v>
+        <v>1.05183202784245</v>
       </c>
       <c r="L6">
-        <v>1.051605060778788</v>
+        <v>1.049001445033212</v>
       </c>
       <c r="M6">
-        <v>1.059718330529518</v>
+        <v>1.057104894922814</v>
       </c>
       <c r="N6">
-        <v>1.051890406050227</v>
+        <v>1.048451429662459</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030273971744716</v>
+        <v>1.027479834600419</v>
       </c>
       <c r="D7">
-        <v>1.04340188568902</v>
+        <v>1.041482302053651</v>
       </c>
       <c r="E7">
-        <v>1.040491548328081</v>
+        <v>1.038503500397636</v>
       </c>
       <c r="F7">
-        <v>1.04856070158405</v>
+        <v>1.046554370877197</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059661375641186</v>
+        <v>1.058899828265874</v>
       </c>
       <c r="J7">
-        <v>1.048927917541441</v>
+        <v>1.046199956101437</v>
       </c>
       <c r="K7">
-        <v>1.053000420366265</v>
+        <v>1.051101738073646</v>
       </c>
       <c r="L7">
-        <v>1.050121809195123</v>
+        <v>1.048155558954272</v>
       </c>
       <c r="M7">
-        <v>1.058103529307998</v>
+        <v>1.05611878375575</v>
       </c>
       <c r="N7">
-        <v>1.050417515498064</v>
+        <v>1.047685680039913</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021602074190927</v>
+        <v>1.021944132748191</v>
       </c>
       <c r="D8">
-        <v>1.03667346331666</v>
+        <v>1.037282280498788</v>
       </c>
       <c r="E8">
-        <v>1.032996297110604</v>
+        <v>1.033808801420691</v>
       </c>
       <c r="F8">
-        <v>1.040509773442413</v>
+        <v>1.041268998396641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056449173663779</v>
+        <v>1.056913354512153</v>
       </c>
       <c r="J8">
-        <v>1.042601679108261</v>
+        <v>1.042934382546109</v>
       </c>
       <c r="K8">
-        <v>1.047378567345596</v>
+        <v>1.047979854118883</v>
       </c>
       <c r="L8">
-        <v>1.043747118870684</v>
+        <v>1.044549486542146</v>
       </c>
       <c r="M8">
-        <v>1.051167609551181</v>
+        <v>1.051917531289678</v>
       </c>
       <c r="N8">
-        <v>1.044082293080679</v>
+        <v>1.04441546899557</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005343656955638</v>
+        <v>1.011757901960992</v>
       </c>
       <c r="D9">
-        <v>1.024074861759035</v>
+        <v>1.029570841397876</v>
       </c>
       <c r="E9">
-        <v>1.018991365656664</v>
+        <v>1.025215785997831</v>
       </c>
       <c r="F9">
-        <v>1.025473948672619</v>
+        <v>1.031594476628917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050321091705004</v>
+        <v>1.053181524333071</v>
       </c>
       <c r="J9">
-        <v>1.030709117884472</v>
+        <v>1.036902182860221</v>
       </c>
       <c r="K9">
-        <v>1.036789053977383</v>
+        <v>1.04220170278979</v>
       </c>
       <c r="L9">
-        <v>1.031783656468225</v>
+        <v>1.037912585681366</v>
       </c>
       <c r="M9">
-        <v>1.038166819704037</v>
+        <v>1.044194939999354</v>
       </c>
       <c r="N9">
-        <v>1.032172843055857</v>
+        <v>1.038374702894226</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.993738584305047</v>
+        <v>1.004647056638727</v>
       </c>
       <c r="D10">
-        <v>1.015099847987401</v>
+        <v>1.024202168974228</v>
       </c>
       <c r="E10">
-        <v>1.009032877338695</v>
+        <v>1.019250539294596</v>
       </c>
       <c r="F10">
-        <v>1.014786845101107</v>
+        <v>1.024877531262065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045879040060185</v>
+        <v>1.050526954303986</v>
       </c>
       <c r="J10">
-        <v>1.022202848625555</v>
+        <v>1.032677505583717</v>
       </c>
       <c r="K10">
-        <v>1.02920171902128</v>
+        <v>1.03814777570544</v>
       </c>
       <c r="L10">
-        <v>1.023240933422626</v>
+        <v>1.033280705735102</v>
       </c>
       <c r="M10">
-        <v>1.028894154152172</v>
+        <v>1.038811686457226</v>
       </c>
       <c r="N10">
-        <v>1.023654493918909</v>
+        <v>1.034144026091411</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9885037262963796</v>
+        <v>1.001484896649928</v>
       </c>
       <c r="D11">
-        <v>1.011057273072684</v>
+        <v>1.021818914875608</v>
       </c>
       <c r="E11">
-        <v>1.004551271618374</v>
+        <v>1.01660633440705</v>
       </c>
       <c r="F11">
-        <v>1.009978242244304</v>
+        <v>1.021899746603368</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043860179130472</v>
+        <v>1.04933529123928</v>
       </c>
       <c r="J11">
-        <v>1.01836270959538</v>
+        <v>1.03079603239186</v>
       </c>
       <c r="K11">
-        <v>1.025773635165421</v>
+        <v>1.036340764019205</v>
       </c>
       <c r="L11">
-        <v>1.019387865008467</v>
+        <v>1.031221730505755</v>
       </c>
       <c r="M11">
-        <v>1.02471440531079</v>
+        <v>1.036420154864627</v>
       </c>
       <c r="N11">
-        <v>1.01980890145084</v>
+        <v>1.032259880991814</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9865250308649122</v>
+        <v>1.000297184684711</v>
       </c>
       <c r="D12">
-        <v>1.009530289974401</v>
+        <v>1.02092445137966</v>
       </c>
       <c r="E12">
-        <v>1.002859011336884</v>
+        <v>1.015614499061057</v>
       </c>
       <c r="F12">
-        <v>1.008162628773474</v>
+        <v>1.020782715895405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043094902436433</v>
+        <v>1.04888606749976</v>
       </c>
       <c r="J12">
-        <v>1.01691083037121</v>
+        <v>1.030088972444465</v>
       </c>
       <c r="K12">
-        <v>1.024477154335226</v>
+        <v>1.035661459370427</v>
       </c>
       <c r="L12">
-        <v>1.017931641418988</v>
+        <v>1.030448541822688</v>
       </c>
       <c r="M12">
-        <v>1.023135098927402</v>
+        <v>1.035522296919551</v>
       </c>
       <c r="N12">
-        <v>1.018354960391639</v>
+        <v>1.031551816938192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.986951064141384</v>
+        <v>1.000552558806644</v>
       </c>
       <c r="D13">
-        <v>1.009859014954383</v>
+        <v>1.021116740872796</v>
       </c>
       <c r="E13">
-        <v>1.003223292301709</v>
+        <v>1.015827696001386</v>
       </c>
       <c r="F13">
-        <v>1.00855345786867</v>
+        <v>1.021022827230641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043259771044371</v>
+        <v>1.048982729692141</v>
       </c>
       <c r="J13">
-        <v>1.017223449571165</v>
+        <v>1.030241016182143</v>
       </c>
       <c r="K13">
-        <v>1.024756330274338</v>
+        <v>1.035807544810442</v>
       </c>
       <c r="L13">
-        <v>1.01824517125106</v>
+        <v>1.030614779613457</v>
       </c>
       <c r="M13">
-        <v>1.023475111645237</v>
+        <v>1.035715329424081</v>
       </c>
       <c r="N13">
-        <v>1.018668023546717</v>
+        <v>1.031704076595418</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9883408819713384</v>
+        <v>1.001386992116814</v>
       </c>
       <c r="D14">
-        <v>1.010931581914054</v>
+        <v>1.021745168757658</v>
       </c>
       <c r="E14">
-        <v>1.004411964881317</v>
+        <v>1.016524548828796</v>
       </c>
       <c r="F14">
-        <v>1.009828778703661</v>
+        <v>1.021807639075136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043797241376325</v>
+        <v>1.04929829410703</v>
       </c>
       <c r="J14">
-        <v>1.018243228446531</v>
+        <v>1.03073775597985</v>
       </c>
       <c r="K14">
-        <v>1.025666950159534</v>
+        <v>1.036284779781775</v>
       </c>
       <c r="L14">
-        <v>1.019268015222268</v>
+        <v>1.031157991996436</v>
       </c>
       <c r="M14">
-        <v>1.024584417837474</v>
+        <v>1.036346134834446</v>
       </c>
       <c r="N14">
-        <v>1.019689250625056</v>
+        <v>1.032201521820614</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9891925712917241</v>
+        <v>1.001899351785502</v>
       </c>
       <c r="D15">
-        <v>1.011589000691098</v>
+        <v>1.022131129739277</v>
       </c>
       <c r="E15">
-        <v>1.005140621364754</v>
+        <v>1.016952608474552</v>
       </c>
       <c r="F15">
-        <v>1.010610566117819</v>
+        <v>1.022289720087615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044126323042624</v>
+        <v>1.04949184333709</v>
       </c>
       <c r="J15">
-        <v>1.018868110494683</v>
+        <v>1.031042716401099</v>
       </c>
       <c r="K15">
-        <v>1.026224893110027</v>
+        <v>1.036577736047024</v>
       </c>
       <c r="L15">
-        <v>1.01989484743617</v>
+        <v>1.031491559072006</v>
       </c>
       <c r="M15">
-        <v>1.025264287209972</v>
+        <v>1.036733517536677</v>
       </c>
       <c r="N15">
-        <v>1.02031502007739</v>
+        <v>1.032506915320641</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9940813597218883</v>
+        <v>1.004855112452239</v>
       </c>
       <c r="D16">
-        <v>1.015364688946626</v>
+        <v>1.024359068552155</v>
       </c>
       <c r="E16">
-        <v>1.009326559316997</v>
+        <v>1.019424697876681</v>
       </c>
       <c r="F16">
-        <v>1.015101972908634</v>
+        <v>1.025073651823605</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046010928163847</v>
+        <v>1.05060513109022</v>
       </c>
       <c r="J16">
-        <v>1.022454242587733</v>
+        <v>1.032801243555876</v>
       </c>
       <c r="K16">
-        <v>1.029426082306697</v>
+        <v>1.038266584495243</v>
       </c>
       <c r="L16">
-        <v>1.023493248022678</v>
+        <v>1.033416197442176</v>
       </c>
       <c r="M16">
-        <v>1.029167913892088</v>
+        <v>1.038969091936204</v>
       </c>
       <c r="N16">
-        <v>1.023906244889348</v>
+        <v>1.034267939785684</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9970899793112187</v>
+        <v>1.006686479390024</v>
       </c>
       <c r="D17">
-        <v>1.017689945094371</v>
+        <v>1.0257406261056</v>
       </c>
       <c r="E17">
-        <v>1.01190547714727</v>
+        <v>1.020958667543117</v>
       </c>
       <c r="F17">
-        <v>1.017869313972011</v>
+        <v>1.026801015691414</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047166841623473</v>
+        <v>1.051291996770439</v>
       </c>
       <c r="J17">
-        <v>1.024660446465721</v>
+        <v>1.033890109054911</v>
       </c>
       <c r="K17">
-        <v>1.031394755456242</v>
+        <v>1.039311895420332</v>
       </c>
       <c r="L17">
-        <v>1.025707931399024</v>
+        <v>1.034608930786824</v>
       </c>
       <c r="M17">
-        <v>1.031571119389129</v>
+        <v>1.040354896397261</v>
       </c>
       <c r="N17">
-        <v>1.026115581829899</v>
+        <v>1.035358351598621</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9988248144451742</v>
+        <v>1.007746711783327</v>
       </c>
       <c r="D18">
-        <v>1.019031282983274</v>
+        <v>1.026540842180532</v>
       </c>
       <c r="E18">
-        <v>1.013393516191353</v>
+        <v>1.021847532641195</v>
       </c>
       <c r="F18">
-        <v>1.019466159349299</v>
+        <v>1.027801909075745</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047831936007394</v>
+        <v>1.051688577918766</v>
       </c>
       <c r="J18">
-        <v>1.025932292509633</v>
+        <v>1.034520218732613</v>
       </c>
       <c r="K18">
-        <v>1.03252940324664</v>
+        <v>1.039916649877945</v>
       </c>
       <c r="L18">
-        <v>1.026984996708022</v>
+        <v>1.035299512258278</v>
       </c>
       <c r="M18">
-        <v>1.032957133316925</v>
+        <v>1.041157401912822</v>
       </c>
       <c r="N18">
-        <v>1.027389234041076</v>
+        <v>1.035989356104341</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9994130264818784</v>
+        <v>1.008106890546036</v>
       </c>
       <c r="D19">
-        <v>1.01948616403361</v>
+        <v>1.026812753600697</v>
       </c>
       <c r="E19">
-        <v>1.013898211919792</v>
+        <v>1.022149630025529</v>
       </c>
       <c r="F19">
-        <v>1.0200077737023</v>
+        <v>1.028142075869185</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04805719719705</v>
+        <v>1.05182312104422</v>
       </c>
       <c r="J19">
-        <v>1.026363470284499</v>
+        <v>1.034734231124555</v>
       </c>
       <c r="K19">
-        <v>1.032914022667359</v>
+        <v>1.040122024651616</v>
       </c>
       <c r="L19">
-        <v>1.027417999656606</v>
+        <v>1.035534125443609</v>
       </c>
       <c r="M19">
-        <v>1.033427117226276</v>
+        <v>1.041430062857781</v>
       </c>
       <c r="N19">
-        <v>1.027821024137839</v>
+        <v>1.036203672418426</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9967692745628973</v>
+        <v>1.006490820344986</v>
       </c>
       <c r="D20">
-        <v>1.01744202598877</v>
+        <v>1.025592982594834</v>
       </c>
       <c r="E20">
-        <v>1.011630473915875</v>
+        <v>1.020794697890391</v>
       </c>
       <c r="F20">
-        <v>1.017574209380678</v>
+        <v>1.026616377379092</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047043774628426</v>
+        <v>1.051218723829546</v>
       </c>
       <c r="J20">
-        <v>1.024425305842563</v>
+        <v>1.033773804537076</v>
       </c>
       <c r="K20">
-        <v>1.031184958571393</v>
+        <v>1.039200258657502</v>
       </c>
       <c r="L20">
-        <v>1.025471852537703</v>
+        <v>1.034481494010772</v>
       </c>
       <c r="M20">
-        <v>1.031314919679189</v>
+        <v>1.040206816822397</v>
       </c>
       <c r="N20">
-        <v>1.025880107280084</v>
+        <v>1.035241881915032</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9879325837723237</v>
+        <v>1.001141640668988</v>
       </c>
       <c r="D21">
-        <v>1.010616454960294</v>
+        <v>1.02156037030465</v>
       </c>
       <c r="E21">
-        <v>1.00406271040035</v>
+        <v>1.016319613567902</v>
       </c>
       <c r="F21">
-        <v>1.009454062108482</v>
+        <v>1.021576838273947</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043639403370879</v>
+        <v>1.049205552128496</v>
       </c>
       <c r="J21">
-        <v>1.017943648841646</v>
+        <v>1.0305917077812</v>
       </c>
       <c r="K21">
-        <v>1.025399448614683</v>
+        <v>1.036144472440107</v>
       </c>
       <c r="L21">
-        <v>1.018967520119186</v>
+        <v>1.030998264365401</v>
       </c>
       <c r="M21">
-        <v>1.024258511021338</v>
+        <v>1.03616064529624</v>
       </c>
       <c r="N21">
-        <v>1.01938924558277</v>
+        <v>1.032055266216771</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9821769373015393</v>
+        <v>0.9977019885547194</v>
       </c>
       <c r="D22">
-        <v>1.006176936741553</v>
+        <v>1.018971356223713</v>
       </c>
       <c r="E22">
-        <v>0.9991436790359346</v>
+        <v>1.013449810078</v>
       </c>
       <c r="F22">
-        <v>1.004176683534452</v>
+        <v>1.018344641960574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041409336629622</v>
+        <v>1.047901547966475</v>
       </c>
       <c r="J22">
-        <v>1.013719835961147</v>
+        <v>1.028543375951047</v>
       </c>
       <c r="K22">
-        <v>1.02162701248426</v>
+        <v>1.034176128027181</v>
       </c>
       <c r="L22">
-        <v>1.014732118920209</v>
+        <v>1.02875945076577</v>
       </c>
       <c r="M22">
-        <v>1.019665851115208</v>
+        <v>1.033561241972593</v>
       </c>
       <c r="N22">
-        <v>1.015159434403502</v>
+        <v>1.030004025520472</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852480344056629</v>
+        <v>0.9995328871611254</v>
       </c>
       <c r="D23">
-        <v>1.008545133166578</v>
+        <v>1.020349063169502</v>
       </c>
       <c r="E23">
-        <v>1.001767375114564</v>
+        <v>1.014976631088355</v>
       </c>
       <c r="F23">
-        <v>1.006991452747989</v>
+        <v>1.020064310828904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042600411988586</v>
+        <v>1.048596536064829</v>
       </c>
       <c r="J23">
-        <v>1.015973736995432</v>
+        <v>1.029633875924288</v>
       </c>
       <c r="K23">
-        <v>1.023640253956149</v>
+        <v>1.035224164679902</v>
       </c>
       <c r="L23">
-        <v>1.016991899286675</v>
+        <v>1.029951044180362</v>
       </c>
       <c r="M23">
-        <v>1.022116035722893</v>
+        <v>1.034944641902099</v>
       </c>
       <c r="N23">
-        <v>1.017416536235782</v>
+        <v>1.031096074128756</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9969142489677334</v>
+        <v>1.006579254836466</v>
       </c>
       <c r="D24">
-        <v>1.017554096003729</v>
+        <v>1.025659713689222</v>
       </c>
       <c r="E24">
-        <v>1.01175478594467</v>
+        <v>1.020868806835891</v>
       </c>
       <c r="F24">
-        <v>1.017707607729024</v>
+        <v>1.026699827992673</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047099411444169</v>
+        <v>1.051251845233966</v>
       </c>
       <c r="J24">
-        <v>1.024531601967073</v>
+        <v>1.033826372989912</v>
       </c>
       <c r="K24">
-        <v>1.03127979879747</v>
+        <v>1.039250717801345</v>
       </c>
       <c r="L24">
-        <v>1.025578571769229</v>
+        <v>1.034539092998445</v>
       </c>
       <c r="M24">
-        <v>1.03143073377632</v>
+        <v>1.040273745533567</v>
       </c>
       <c r="N24">
-        <v>1.025986554357283</v>
+        <v>1.0352945250211</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009673218101528</v>
+        <v>1.014445395221291</v>
       </c>
       <c r="D25">
-        <v>1.02742731466364</v>
+        <v>1.03160311036296</v>
       </c>
       <c r="E25">
-        <v>1.022714776042492</v>
+        <v>1.027477355339008</v>
       </c>
       <c r="F25">
-        <v>1.029470635461083</v>
+        <v>1.034140793241921</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051964864341146</v>
+        <v>1.054174816248883</v>
       </c>
       <c r="J25">
-        <v>1.033879368329203</v>
+        <v>1.038496205510891</v>
       </c>
       <c r="K25">
-        <v>1.039614270359813</v>
+        <v>1.043729866585685</v>
       </c>
       <c r="L25">
-        <v>1.034970418446618</v>
+        <v>1.039663585962549</v>
       </c>
       <c r="M25">
-        <v>1.041628056751191</v>
+        <v>1.046231266013182</v>
       </c>
       <c r="N25">
-        <v>1.035347595619852</v>
+        <v>1.039970989239896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020490759373901</v>
+        <v>1.012327031101094</v>
       </c>
       <c r="D2">
-        <v>1.036180612682664</v>
+        <v>1.027778634429058</v>
       </c>
       <c r="E2">
-        <v>1.032579189248166</v>
+        <v>1.026457273966486</v>
       </c>
       <c r="F2">
-        <v>1.039884679573454</v>
+        <v>1.035896622519388</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056386634403826</v>
+        <v>1.051206881761729</v>
       </c>
       <c r="J2">
-        <v>1.042075403626021</v>
+        <v>1.034145191824194</v>
       </c>
       <c r="K2">
-        <v>1.047157896096938</v>
+        <v>1.038864072374145</v>
       </c>
       <c r="L2">
-        <v>1.043602562512908</v>
+        <v>1.037559922920988</v>
       </c>
       <c r="M2">
-        <v>1.050814975170211</v>
+        <v>1.046877525806962</v>
       </c>
       <c r="N2">
-        <v>1.043555270226889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015265920723853</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045672789506191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024757564056574</v>
+        <v>1.015698754291095</v>
       </c>
       <c r="D3">
-        <v>1.039416117614279</v>
+        <v>1.030138097988738</v>
       </c>
       <c r="E3">
-        <v>1.036192549180605</v>
+        <v>1.029074863198826</v>
       </c>
       <c r="F3">
-        <v>1.043952653808933</v>
+        <v>1.038479821838524</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057926985446656</v>
+        <v>1.052145450619017</v>
       </c>
       <c r="J3">
-        <v>1.044595335109182</v>
+        <v>1.03577041560402</v>
       </c>
       <c r="K3">
-        <v>1.049568328764263</v>
+        <v>1.040399348767772</v>
       </c>
       <c r="L3">
-        <v>1.046382371314536</v>
+        <v>1.039348765254836</v>
       </c>
       <c r="M3">
-        <v>1.054052420812786</v>
+        <v>1.048642927466391</v>
       </c>
       <c r="N3">
-        <v>1.046078780301797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01581041641479</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047069975293013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027464745134129</v>
+        <v>1.017843573402411</v>
       </c>
       <c r="D4">
-        <v>1.041470845359133</v>
+        <v>1.031641051880176</v>
       </c>
       <c r="E4">
-        <v>1.038490678632073</v>
+        <v>1.030745683008572</v>
       </c>
       <c r="F4">
-        <v>1.046539935755724</v>
+        <v>1.040129927051554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058894458317251</v>
+        <v>1.052733018577902</v>
       </c>
       <c r="J4">
-        <v>1.046191068966493</v>
+        <v>1.036801595957582</v>
       </c>
       <c r="K4">
-        <v>1.051093248734977</v>
+        <v>1.041372025586185</v>
       </c>
       <c r="L4">
-        <v>1.048145731287518</v>
+        <v>1.040486672746448</v>
       </c>
       <c r="M4">
-        <v>1.056107328353892</v>
+        <v>1.049766992454757</v>
       </c>
       <c r="N4">
-        <v>1.047676780284219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016155839609757</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04795958881681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028590406700383</v>
+        <v>1.01873664578511</v>
       </c>
       <c r="D5">
-        <v>1.04232562132282</v>
+        <v>1.032267318203762</v>
       </c>
       <c r="E5">
-        <v>1.039447550217309</v>
+        <v>1.031442732841927</v>
       </c>
       <c r="F5">
-        <v>1.047617214791869</v>
+        <v>1.040818628889453</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059294342381772</v>
+        <v>1.052975366440528</v>
       </c>
       <c r="J5">
-        <v>1.046853811125738</v>
+        <v>1.037230303268707</v>
       </c>
       <c r="K5">
-        <v>1.051726218523362</v>
+        <v>1.041776058536823</v>
       </c>
       <c r="L5">
-        <v>1.048878829545224</v>
+        <v>1.040960453603035</v>
       </c>
       <c r="M5">
-        <v>1.056961937912177</v>
+        <v>1.050235265707187</v>
       </c>
       <c r="N5">
-        <v>1.048340463613347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01629943367237</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048330191822723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028778692887555</v>
+        <v>1.018886098144783</v>
       </c>
       <c r="D6">
-        <v>1.0424686200251</v>
+        <v>1.032372147443542</v>
       </c>
       <c r="E6">
-        <v>1.039607678612164</v>
+        <v>1.031559459739557</v>
       </c>
       <c r="F6">
-        <v>1.047797493912661</v>
+        <v>1.040933975038144</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059361087938778</v>
+        <v>1.053015785875912</v>
       </c>
       <c r="J6">
-        <v>1.046964619813803</v>
+        <v>1.037302006265007</v>
       </c>
       <c r="K6">
-        <v>1.05183202784245</v>
+        <v>1.041843613731763</v>
       </c>
       <c r="L6">
-        <v>1.049001445033212</v>
+        <v>1.041039736718588</v>
       </c>
       <c r="M6">
-        <v>1.057104894922814</v>
+        <v>1.050313642201205</v>
       </c>
       <c r="N6">
-        <v>1.048451429662459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016323449506429</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048392220895811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027479834600419</v>
+        <v>1.017855540213332</v>
       </c>
       <c r="D7">
-        <v>1.041482302053651</v>
+        <v>1.031649441836666</v>
       </c>
       <c r="E7">
-        <v>1.038503500397636</v>
+        <v>1.030755017927384</v>
       </c>
       <c r="F7">
-        <v>1.046554370877197</v>
+        <v>1.040139149017873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058899828265874</v>
+        <v>1.052736275093615</v>
       </c>
       <c r="J7">
-        <v>1.046199956101437</v>
+        <v>1.036807343106676</v>
       </c>
       <c r="K7">
-        <v>1.051101738073646</v>
+        <v>1.041377443356971</v>
       </c>
       <c r="L7">
-        <v>1.048155558954272</v>
+        <v>1.040493021362037</v>
       </c>
       <c r="M7">
-        <v>1.05611878375575</v>
+        <v>1.049773266259431</v>
       </c>
       <c r="N7">
-        <v>1.047685680039913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01615776465359</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047964554061851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021944132748191</v>
+        <v>1.013474302883348</v>
       </c>
       <c r="D8">
-        <v>1.037282280498788</v>
+        <v>1.028581020938233</v>
       </c>
       <c r="E8">
-        <v>1.033808801420691</v>
+        <v>1.027346727894164</v>
       </c>
       <c r="F8">
-        <v>1.041268998396641</v>
+        <v>1.036774130965114</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056913354512153</v>
+        <v>1.051528202898996</v>
       </c>
       <c r="J8">
-        <v>1.042934382546109</v>
+        <v>1.034698735704794</v>
       </c>
       <c r="K8">
-        <v>1.047979854118883</v>
+        <v>1.039387276094482</v>
       </c>
       <c r="L8">
-        <v>1.044549486542146</v>
+        <v>1.03816858585314</v>
       </c>
       <c r="M8">
-        <v>1.051917531289678</v>
+        <v>1.047477989084511</v>
       </c>
       <c r="N8">
-        <v>1.04441546899557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015451383410181</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046148012398244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011757901960992</v>
+        <v>1.005460683844557</v>
       </c>
       <c r="D9">
-        <v>1.029570841397876</v>
+        <v>1.022986521080333</v>
       </c>
       <c r="E9">
-        <v>1.025215785997831</v>
+        <v>1.02115926440087</v>
       </c>
       <c r="F9">
-        <v>1.031594476628917</v>
+        <v>1.030675066106966</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053181524333071</v>
+        <v>1.049245250225617</v>
       </c>
       <c r="J9">
-        <v>1.036902182860221</v>
+        <v>1.030822074056207</v>
       </c>
       <c r="K9">
-        <v>1.04220170278979</v>
+        <v>1.035717350356443</v>
       </c>
       <c r="L9">
-        <v>1.037912585681366</v>
+        <v>1.033918128054852</v>
       </c>
       <c r="M9">
-        <v>1.044194939999354</v>
+        <v>1.04328932156185</v>
       </c>
       <c r="N9">
-        <v>1.038374702894226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014152361137463</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04283298110867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004647056638727</v>
+        <v>0.9999564440752091</v>
       </c>
       <c r="D10">
-        <v>1.024202168974228</v>
+        <v>1.019165394066889</v>
       </c>
       <c r="E10">
-        <v>1.019250539294596</v>
+        <v>1.016975995846163</v>
       </c>
       <c r="F10">
-        <v>1.024877531262065</v>
+        <v>1.026606210588197</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050526954303986</v>
+        <v>1.047648585323524</v>
       </c>
       <c r="J10">
-        <v>1.032677505583717</v>
+        <v>1.028171790212722</v>
       </c>
       <c r="K10">
-        <v>1.03814777570544</v>
+        <v>1.033197023834548</v>
       </c>
       <c r="L10">
-        <v>1.033280705735102</v>
+        <v>1.031045362021345</v>
       </c>
       <c r="M10">
-        <v>1.038811686457226</v>
+        <v>1.040511142602729</v>
       </c>
       <c r="N10">
-        <v>1.034144026091411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013267902846476</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040685543471655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001484896649928</v>
+        <v>0.9979276031870933</v>
       </c>
       <c r="D11">
-        <v>1.021818914875608</v>
+        <v>1.017817920880867</v>
       </c>
       <c r="E11">
-        <v>1.01660633440705</v>
+        <v>1.015709933847231</v>
       </c>
       <c r="F11">
-        <v>1.021899746603368</v>
+        <v>1.025760369081512</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04933529123928</v>
+        <v>1.047196434879073</v>
       </c>
       <c r="J11">
-        <v>1.03079603239186</v>
+        <v>1.02738685115418</v>
       </c>
       <c r="K11">
-        <v>1.036340764019205</v>
+        <v>1.032411462297488</v>
       </c>
       <c r="L11">
-        <v>1.031221730505755</v>
+        <v>1.030341542924219</v>
       </c>
       <c r="M11">
-        <v>1.036420154864627</v>
+        <v>1.040212301923499</v>
       </c>
       <c r="N11">
-        <v>1.032259880991814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013038236979768</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040884045552642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000297184684711</v>
+        <v>0.9973178210164084</v>
       </c>
       <c r="D12">
-        <v>1.02092445137966</v>
+        <v>1.017438139436879</v>
       </c>
       <c r="E12">
-        <v>1.015614499061057</v>
+        <v>1.015446683747775</v>
       </c>
       <c r="F12">
-        <v>1.020782715895405</v>
+        <v>1.025787119117734</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04888606749976</v>
+        <v>1.047122637835279</v>
       </c>
       <c r="J12">
-        <v>1.030088972444465</v>
+        <v>1.027236130861076</v>
       </c>
       <c r="K12">
-        <v>1.035661459370427</v>
+        <v>1.032238708053938</v>
       </c>
       <c r="L12">
-        <v>1.030448541822688</v>
+        <v>1.030283814743513</v>
       </c>
       <c r="M12">
-        <v>1.035522296919551</v>
+        <v>1.040436410791513</v>
       </c>
       <c r="N12">
-        <v>1.031551816938192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013014179830139</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041386821487193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000552558806644</v>
+        <v>0.9977607410732721</v>
       </c>
       <c r="D13">
-        <v>1.021116740872796</v>
+        <v>1.017778337409303</v>
       </c>
       <c r="E13">
-        <v>1.015827696001386</v>
+        <v>1.015940184252026</v>
       </c>
       <c r="F13">
-        <v>1.021022827230641</v>
+        <v>1.0264998721923</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048982729692141</v>
+        <v>1.047340725347886</v>
       </c>
       <c r="J13">
-        <v>1.030241016182143</v>
+        <v>1.027567204709449</v>
       </c>
       <c r="K13">
-        <v>1.035807544810442</v>
+        <v>1.032529760724229</v>
       </c>
       <c r="L13">
-        <v>1.030614779613457</v>
+        <v>1.03072520658518</v>
       </c>
       <c r="M13">
-        <v>1.035715329424081</v>
+        <v>1.041094006384464</v>
       </c>
       <c r="N13">
-        <v>1.031704076595418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013147998882147</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042182737515017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001386992116814</v>
+        <v>0.9985459686107685</v>
       </c>
       <c r="D14">
-        <v>1.021745168757658</v>
+        <v>1.018341147587412</v>
       </c>
       <c r="E14">
-        <v>1.016524548828796</v>
+        <v>1.016625619066138</v>
       </c>
       <c r="F14">
-        <v>1.021807639075136</v>
+        <v>1.027306693727627</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04929829410703</v>
+        <v>1.047624060322254</v>
       </c>
       <c r="J14">
-        <v>1.03073775597985</v>
+        <v>1.028015103052299</v>
       </c>
       <c r="K14">
-        <v>1.036284779781775</v>
+        <v>1.032941798499732</v>
       </c>
       <c r="L14">
-        <v>1.031157991996436</v>
+        <v>1.03125723376524</v>
       </c>
       <c r="M14">
-        <v>1.036346134834446</v>
+        <v>1.041747705390819</v>
       </c>
       <c r="N14">
-        <v>1.032201521820614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013312375762144</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042872388655531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001899351785502</v>
+        <v>0.9989690587244069</v>
       </c>
       <c r="D15">
-        <v>1.022131129739277</v>
+        <v>1.01863798916987</v>
       </c>
       <c r="E15">
-        <v>1.016952608474552</v>
+        <v>1.01696433983484</v>
       </c>
       <c r="F15">
-        <v>1.022289720087615</v>
+        <v>1.027666750759066</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04949184333709</v>
+        <v>1.04775957210751</v>
       </c>
       <c r="J15">
-        <v>1.031042716401099</v>
+        <v>1.028233440129116</v>
       </c>
       <c r="K15">
-        <v>1.036577736047024</v>
+        <v>1.033146751933771</v>
       </c>
       <c r="L15">
-        <v>1.031491559072006</v>
+        <v>1.031503079855722</v>
       </c>
       <c r="M15">
-        <v>1.036733517536677</v>
+        <v>1.042015977822743</v>
       </c>
       <c r="N15">
-        <v>1.032506915320641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013388389318284</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04312188459245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004855112452239</v>
+        <v>1.001209891074464</v>
       </c>
       <c r="D16">
-        <v>1.024359068552155</v>
+        <v>1.020186541605616</v>
       </c>
       <c r="E16">
-        <v>1.019424697876681</v>
+        <v>1.018641767310714</v>
       </c>
       <c r="F16">
-        <v>1.025073651823605</v>
+        <v>1.029281485054046</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05060513109022</v>
+        <v>1.04840772672507</v>
       </c>
       <c r="J16">
-        <v>1.032801243555876</v>
+        <v>1.029298956172339</v>
       </c>
       <c r="K16">
-        <v>1.038266584495243</v>
+        <v>1.034165005978049</v>
       </c>
       <c r="L16">
-        <v>1.033416197442176</v>
+        <v>1.032646689123769</v>
       </c>
       <c r="M16">
-        <v>1.038969091936204</v>
+        <v>1.04310625467657</v>
       </c>
       <c r="N16">
-        <v>1.034267939785684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013739606509434</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043945011158621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006686479390024</v>
+        <v>1.002519354945903</v>
       </c>
       <c r="D17">
-        <v>1.0257406261056</v>
+        <v>1.021081327036895</v>
       </c>
       <c r="E17">
-        <v>1.020958667543117</v>
+        <v>1.019570777500839</v>
       </c>
       <c r="F17">
-        <v>1.026801015691414</v>
+        <v>1.03009334599789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051291996770439</v>
+        <v>1.04875405296279</v>
       </c>
       <c r="J17">
-        <v>1.033890109054911</v>
+        <v>1.029881061140929</v>
       </c>
       <c r="K17">
-        <v>1.039311895420332</v>
+        <v>1.034729552143135</v>
       </c>
       <c r="L17">
-        <v>1.034608930786824</v>
+        <v>1.03324414625061</v>
       </c>
       <c r="M17">
-        <v>1.040354896397261</v>
+        <v>1.043593531028616</v>
       </c>
       <c r="N17">
-        <v>1.035358351598621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013922562130868</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044201450562968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007746711783327</v>
+        <v>1.003142878526358</v>
       </c>
       <c r="D18">
-        <v>1.026540842180532</v>
+        <v>1.021487604864512</v>
       </c>
       <c r="E18">
-        <v>1.021847532641195</v>
+        <v>1.019918438681243</v>
       </c>
       <c r="F18">
-        <v>1.027801909075745</v>
+        <v>1.030243032926588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051688577918766</v>
+        <v>1.048865241784928</v>
       </c>
       <c r="J18">
-        <v>1.034520218732613</v>
+        <v>1.030087675255116</v>
       </c>
       <c r="K18">
-        <v>1.039916649877945</v>
+        <v>1.03494546321228</v>
       </c>
       <c r="L18">
-        <v>1.035299512258278</v>
+        <v>1.033401988684083</v>
       </c>
       <c r="M18">
-        <v>1.041157401912822</v>
+        <v>1.04355938222629</v>
       </c>
       <c r="N18">
-        <v>1.035989356104341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013972326583216</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043937423741974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,122 +1232,140 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008106890546036</v>
+        <v>1.003137308892578</v>
       </c>
       <c r="D19">
-        <v>1.026812753600697</v>
+        <v>1.021444214009305</v>
       </c>
       <c r="E19">
-        <v>1.022149630025529</v>
+        <v>1.019727682738545</v>
       </c>
       <c r="F19">
-        <v>1.028142075869185</v>
+        <v>1.029778625282822</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05182312104422</v>
+        <v>1.048760565638015</v>
       </c>
       <c r="J19">
-        <v>1.034734231124555</v>
+        <v>1.029948376750748</v>
       </c>
       <c r="K19">
-        <v>1.040122024651616</v>
+        <v>1.034840165848301</v>
       </c>
       <c r="L19">
-        <v>1.035534125443609</v>
+        <v>1.033151597265663</v>
       </c>
       <c r="M19">
-        <v>1.041430062857781</v>
+        <v>1.043040505837076</v>
       </c>
       <c r="N19">
-        <v>1.036203672418426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013900835132641</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043202630098303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006490820344986</v>
+        <v>1.001382701205221</v>
       </c>
       <c r="D20">
-        <v>1.025592982594834</v>
+        <v>1.020154688352126</v>
       </c>
       <c r="E20">
-        <v>1.020794697890391</v>
+        <v>1.018059010148189</v>
       </c>
       <c r="F20">
-        <v>1.026616377379092</v>
+        <v>1.02766157336596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051218723829546</v>
+        <v>1.048066500651762</v>
       </c>
       <c r="J20">
-        <v>1.033773804537076</v>
+        <v>1.028860425896955</v>
       </c>
       <c r="K20">
-        <v>1.039200258657502</v>
+        <v>1.033852163947642</v>
       </c>
       <c r="L20">
-        <v>1.034481494010772</v>
+        <v>1.031791576282504</v>
       </c>
       <c r="M20">
-        <v>1.040206816822397</v>
+        <v>1.041234862023678</v>
       </c>
       <c r="N20">
-        <v>1.035241881915032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013497883463274</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041247768476033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.001141640668988</v>
+        <v>0.997179436013393</v>
       </c>
       <c r="D21">
-        <v>1.02156037030465</v>
+        <v>1.017231323658945</v>
       </c>
       <c r="E21">
-        <v>1.016319613567902</v>
+        <v>1.014824671660029</v>
       </c>
       <c r="F21">
-        <v>1.021576838273947</v>
+        <v>1.024443076807604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049205552128496</v>
+        <v>1.046803207767314</v>
       </c>
       <c r="J21">
-        <v>1.0305917077812</v>
+        <v>1.026795559029956</v>
       </c>
       <c r="K21">
-        <v>1.036144472440107</v>
+        <v>1.031893435224044</v>
       </c>
       <c r="L21">
-        <v>1.030998264365401</v>
+        <v>1.029530525740698</v>
       </c>
       <c r="M21">
-        <v>1.03616064529624</v>
+        <v>1.038975707177927</v>
       </c>
       <c r="N21">
-        <v>1.032055266216771</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012802887287571</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03941904749652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9977019885547194</v>
+        <v>0.9945126660851523</v>
       </c>
       <c r="D22">
-        <v>1.018971356223713</v>
+        <v>1.015383999822046</v>
       </c>
       <c r="E22">
-        <v>1.013449810078</v>
+        <v>1.012797075183985</v>
       </c>
       <c r="F22">
-        <v>1.018344641960574</v>
+        <v>1.02245074510824</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047901547966475</v>
+        <v>1.046001644584317</v>
       </c>
       <c r="J22">
-        <v>1.028543375951047</v>
+        <v>1.025495607447424</v>
       </c>
       <c r="K22">
-        <v>1.034176128027181</v>
+        <v>1.030656735334199</v>
       </c>
       <c r="L22">
-        <v>1.02875945076577</v>
+        <v>1.028119211975686</v>
       </c>
       <c r="M22">
-        <v>1.033561241972593</v>
+        <v>1.037590193336565</v>
       </c>
       <c r="N22">
-        <v>1.030004025520472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012367198626252</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038322503700919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9995328871611254</v>
+        <v>0.9959311426041676</v>
       </c>
       <c r="D23">
-        <v>1.020349063169502</v>
+        <v>1.016366232987996</v>
       </c>
       <c r="E23">
-        <v>1.014976631088355</v>
+        <v>1.013874838441391</v>
       </c>
       <c r="F23">
-        <v>1.020064310828904</v>
+        <v>1.023509621353133</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048596536064829</v>
+        <v>1.046428848527507</v>
       </c>
       <c r="J23">
-        <v>1.029633875924288</v>
+        <v>1.026187233570698</v>
       </c>
       <c r="K23">
-        <v>1.035224164679902</v>
+        <v>1.031314827455692</v>
       </c>
       <c r="L23">
-        <v>1.029951044180362</v>
+        <v>1.02886978834776</v>
       </c>
       <c r="M23">
-        <v>1.034944641902099</v>
+        <v>1.038326932525563</v>
       </c>
       <c r="N23">
-        <v>1.031096074128756</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012599002247659</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038905584902998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006579254836466</v>
+        <v>1.001411735908807</v>
       </c>
       <c r="D24">
-        <v>1.025659713689222</v>
+        <v>1.020169185453009</v>
       </c>
       <c r="E24">
-        <v>1.020868806835891</v>
+        <v>1.018054766866687</v>
       </c>
       <c r="F24">
-        <v>1.026699827992673</v>
+        <v>1.027619388884776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051251845233966</v>
+        <v>1.048060700423456</v>
       </c>
       <c r="J24">
-        <v>1.033826372989912</v>
+        <v>1.028855550308074</v>
       </c>
       <c r="K24">
-        <v>1.039250717801345</v>
+        <v>1.033851129532775</v>
       </c>
       <c r="L24">
-        <v>1.034539092998445</v>
+        <v>1.031772069424179</v>
       </c>
       <c r="M24">
-        <v>1.040273745533567</v>
+        <v>1.041178237289268</v>
       </c>
       <c r="N24">
-        <v>1.0352945250211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013493302259144</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041162202911938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014445395221291</v>
+        <v>1.007568707313416</v>
       </c>
       <c r="D25">
-        <v>1.03160311036296</v>
+        <v>1.024455853775698</v>
       </c>
       <c r="E25">
-        <v>1.027477355339008</v>
+        <v>1.022781263909424</v>
       </c>
       <c r="F25">
-        <v>1.034140793241921</v>
+        <v>1.032272718628385</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054174816248883</v>
+        <v>1.049854146616297</v>
       </c>
       <c r="J25">
-        <v>1.038496205510891</v>
+        <v>1.031844011699117</v>
       </c>
       <c r="K25">
-        <v>1.043729866585685</v>
+        <v>1.036686026049274</v>
       </c>
       <c r="L25">
-        <v>1.039663585962549</v>
+        <v>1.035035931644848</v>
       </c>
       <c r="M25">
-        <v>1.046231266013182</v>
+        <v>1.044389878948683</v>
       </c>
       <c r="N25">
-        <v>1.039970989239896</v>
+        <v>1.014494831607378</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043703995161613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012327031101094</v>
+        <v>1.011806210447385</v>
       </c>
       <c r="D2">
-        <v>1.027778634429058</v>
+        <v>1.026703056090191</v>
       </c>
       <c r="E2">
-        <v>1.026457273966486</v>
+        <v>1.026036537642057</v>
       </c>
       <c r="F2">
-        <v>1.035896622519388</v>
+        <v>1.035538091824181</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051206881761729</v>
+        <v>1.05067453528501</v>
       </c>
       <c r="J2">
-        <v>1.034145191824194</v>
+        <v>1.033639444108687</v>
       </c>
       <c r="K2">
-        <v>1.038864072374145</v>
+        <v>1.037802499478373</v>
       </c>
       <c r="L2">
-        <v>1.037559922920988</v>
+        <v>1.037144678434814</v>
       </c>
       <c r="M2">
-        <v>1.046877525806962</v>
+        <v>1.046523568656712</v>
       </c>
       <c r="N2">
-        <v>1.015265920723853</v>
+        <v>1.016107443334427</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045672789506191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045392658092039</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02213699028158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015698754291095</v>
+        <v>1.015049763961912</v>
       </c>
       <c r="D3">
-        <v>1.030138097988738</v>
+        <v>1.028874136620907</v>
       </c>
       <c r="E3">
-        <v>1.029074863198826</v>
+        <v>1.028549195538684</v>
       </c>
       <c r="F3">
-        <v>1.038479821838524</v>
+        <v>1.038035694145524</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052145450619017</v>
+        <v>1.051509673798342</v>
       </c>
       <c r="J3">
-        <v>1.03577041560402</v>
+        <v>1.035138398916023</v>
       </c>
       <c r="K3">
-        <v>1.040399348767772</v>
+        <v>1.039150430730993</v>
       </c>
       <c r="L3">
-        <v>1.039348765254836</v>
+        <v>1.03882936441801</v>
       </c>
       <c r="M3">
-        <v>1.048642927466391</v>
+        <v>1.048203976018708</v>
       </c>
       <c r="N3">
-        <v>1.01581041641479</v>
+        <v>1.016506391335589</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047069975293013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046722577700206</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022396185492882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017843573402411</v>
+        <v>1.017113766440026</v>
       </c>
       <c r="D4">
-        <v>1.031641051880176</v>
+        <v>1.030257765896945</v>
       </c>
       <c r="E4">
-        <v>1.030745683008572</v>
+        <v>1.030153774243405</v>
       </c>
       <c r="F4">
-        <v>1.040129927051554</v>
+        <v>1.039631773679392</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052733018577902</v>
+        <v>1.052031633013335</v>
       </c>
       <c r="J4">
-        <v>1.036801595957582</v>
+        <v>1.036089605014013</v>
       </c>
       <c r="K4">
-        <v>1.041372025586185</v>
+        <v>1.040004222735786</v>
       </c>
       <c r="L4">
-        <v>1.040486672746448</v>
+        <v>1.03990139713089</v>
       </c>
       <c r="M4">
-        <v>1.049766992454757</v>
+        <v>1.049274297883769</v>
       </c>
       <c r="N4">
-        <v>1.016155839609757</v>
+        <v>1.016759546752929</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04795958881681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047569657976606</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022557842142797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01873664578511</v>
+        <v>1.017973348624787</v>
       </c>
       <c r="D5">
-        <v>1.032267318203762</v>
+        <v>1.030834463289338</v>
       </c>
       <c r="E5">
-        <v>1.031442732841927</v>
+        <v>1.030823357925784</v>
       </c>
       <c r="F5">
-        <v>1.040818628889453</v>
+        <v>1.04029807602894</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052975366440528</v>
+        <v>1.052246703730463</v>
       </c>
       <c r="J5">
-        <v>1.037230303268707</v>
+        <v>1.036485091574176</v>
       </c>
       <c r="K5">
-        <v>1.041776058536823</v>
+        <v>1.040358819920863</v>
       </c>
       <c r="L5">
-        <v>1.040960453603035</v>
+        <v>1.04034783579979</v>
       </c>
       <c r="M5">
-        <v>1.050235265707187</v>
+        <v>1.049720266553918</v>
       </c>
       <c r="N5">
-        <v>1.01629943367237</v>
+        <v>1.016864799263518</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048330191822723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047922608775822</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022624369518762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018886098144783</v>
+        <v>1.018117205663984</v>
       </c>
       <c r="D6">
-        <v>1.032372147443542</v>
+        <v>1.030931004004319</v>
       </c>
       <c r="E6">
-        <v>1.031559459739557</v>
+        <v>1.030935495090833</v>
       </c>
       <c r="F6">
-        <v>1.040933975038144</v>
+        <v>1.04040967918682</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053015785875912</v>
+        <v>1.052282560783004</v>
       </c>
       <c r="J6">
-        <v>1.037302006265007</v>
+        <v>1.036551239751372</v>
       </c>
       <c r="K6">
-        <v>1.041843613731763</v>
+        <v>1.040418106023374</v>
       </c>
       <c r="L6">
-        <v>1.041039736718588</v>
+        <v>1.040422548300391</v>
       </c>
       <c r="M6">
-        <v>1.050313642201205</v>
+        <v>1.04979491464375</v>
       </c>
       <c r="N6">
-        <v>1.016323449506429</v>
+        <v>1.016882403366495</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048392220895811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047981687131314</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022635456223246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017855540213332</v>
+        <v>1.017131940154159</v>
       </c>
       <c r="D7">
-        <v>1.031649441836666</v>
+        <v>1.030270684270765</v>
       </c>
       <c r="E7">
-        <v>1.030755017927384</v>
+        <v>1.030168257052908</v>
       </c>
       <c r="F7">
-        <v>1.040139149017873</v>
+        <v>1.03964504577874</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052736275093615</v>
+        <v>1.052038197531729</v>
       </c>
       <c r="J7">
-        <v>1.036807343106676</v>
+        <v>1.036101400405099</v>
       </c>
       <c r="K7">
-        <v>1.041377443356971</v>
+        <v>1.04001411270033</v>
       </c>
       <c r="L7">
-        <v>1.040493021362037</v>
+        <v>1.039912833568719</v>
       </c>
       <c r="M7">
-        <v>1.049773266259431</v>
+        <v>1.049284575495414</v>
       </c>
       <c r="N7">
-        <v>1.01615776465359</v>
+        <v>1.016788466107143</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047964554061851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047577791938322</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02256027035252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013474302883348</v>
+        <v>1.012930131580856</v>
       </c>
       <c r="D8">
-        <v>1.028581020938233</v>
+        <v>1.02745716354216</v>
       </c>
       <c r="E8">
-        <v>1.027346727894164</v>
+        <v>1.026907117468657</v>
       </c>
       <c r="F8">
-        <v>1.036774130965114</v>
+        <v>1.036399736552433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051528202898996</v>
+        <v>1.050971866377327</v>
       </c>
       <c r="J8">
-        <v>1.034698735704794</v>
+        <v>1.03416979313865</v>
       </c>
       <c r="K8">
-        <v>1.039387276094482</v>
+        <v>1.038277623568771</v>
       </c>
       <c r="L8">
-        <v>1.03816858585314</v>
+        <v>1.037734543888404</v>
       </c>
       <c r="M8">
-        <v>1.047477989084511</v>
+        <v>1.04710822987467</v>
       </c>
       <c r="N8">
-        <v>1.015451383410181</v>
+        <v>1.01632694871528</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046148012398244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045855374986727</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022230573466768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005460683844557</v>
+        <v>1.005228586126559</v>
       </c>
       <c r="D9">
-        <v>1.022986521080333</v>
+        <v>1.022315819171604</v>
       </c>
       <c r="E9">
-        <v>1.02115926440087</v>
+        <v>1.020974635837671</v>
       </c>
       <c r="F9">
-        <v>1.030675066106966</v>
+        <v>1.030508688182164</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049245250225617</v>
+        <v>1.04893746746647</v>
       </c>
       <c r="J9">
-        <v>1.030822074056207</v>
+        <v>1.030598051025279</v>
       </c>
       <c r="K9">
-        <v>1.035717350356443</v>
+        <v>1.035056923725649</v>
       </c>
       <c r="L9">
-        <v>1.033918128054852</v>
+        <v>1.03373633924881</v>
       </c>
       <c r="M9">
-        <v>1.04328932156185</v>
+        <v>1.043125442820993</v>
       </c>
       <c r="N9">
-        <v>1.014152361137463</v>
+        <v>1.015385756798264</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04283298110867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042703282479474</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021597437380828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999564440752091</v>
+        <v>0.9999709401172876</v>
       </c>
       <c r="D10">
-        <v>1.019165394066889</v>
+        <v>1.01882983268573</v>
       </c>
       <c r="E10">
-        <v>1.016975995846163</v>
+        <v>1.016992414298057</v>
       </c>
       <c r="F10">
-        <v>1.026606210588197</v>
+        <v>1.026603397477371</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047648585323524</v>
+        <v>1.04752754228342</v>
       </c>
       <c r="J10">
-        <v>1.028171790212722</v>
+        <v>1.028185711057544</v>
       </c>
       <c r="K10">
-        <v>1.033197023834548</v>
+        <v>1.032867232573956</v>
       </c>
       <c r="L10">
-        <v>1.031045362021345</v>
+        <v>1.031061496703095</v>
       </c>
       <c r="M10">
-        <v>1.040511142602729</v>
+        <v>1.040508376944178</v>
       </c>
       <c r="N10">
-        <v>1.013267902846476</v>
+        <v>1.014863023829429</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040685543471655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040683354774628</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021160102657215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9979276031870933</v>
+        <v>0.9980652350314853</v>
       </c>
       <c r="D11">
-        <v>1.017817920880867</v>
+        <v>1.017624814027559</v>
       </c>
       <c r="E11">
-        <v>1.015709933847231</v>
+        <v>1.015825533178913</v>
       </c>
       <c r="F11">
-        <v>1.025760369081512</v>
+        <v>1.025838194304747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047196434879073</v>
+        <v>1.047159729358255</v>
       </c>
       <c r="J11">
-        <v>1.02738685115418</v>
+        <v>1.027518724582913</v>
       </c>
       <c r="K11">
-        <v>1.032411462297488</v>
+        <v>1.032221834187914</v>
       </c>
       <c r="L11">
-        <v>1.030341542924219</v>
+        <v>1.030455049349039</v>
       </c>
       <c r="M11">
-        <v>1.040212301923499</v>
+        <v>1.040288753641487</v>
       </c>
       <c r="N11">
-        <v>1.013038236979768</v>
+        <v>1.01493659698442</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040884045552642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040944517932949</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021060052514174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9973178210164084</v>
+        <v>0.997492769207414</v>
       </c>
       <c r="D12">
-        <v>1.017438139436879</v>
+        <v>1.01728532046765</v>
       </c>
       <c r="E12">
-        <v>1.015446683747775</v>
+        <v>1.015591315194647</v>
       </c>
       <c r="F12">
-        <v>1.025787119117734</v>
+        <v>1.025888931378008</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047122637835279</v>
+        <v>1.047110621009622</v>
       </c>
       <c r="J12">
-        <v>1.027236130861076</v>
+        <v>1.02740361989376</v>
       </c>
       <c r="K12">
-        <v>1.032238708053938</v>
+        <v>1.032088688179916</v>
       </c>
       <c r="L12">
-        <v>1.030283814743513</v>
+        <v>1.030425784519986</v>
       </c>
       <c r="M12">
-        <v>1.040436410791513</v>
+        <v>1.040536398033256</v>
       </c>
       <c r="N12">
-        <v>1.013014179830139</v>
+        <v>1.015025562102992</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041386821487193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041465883556566</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021054479968404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9977607410732721</v>
+        <v>0.9979005219750959</v>
       </c>
       <c r="D13">
-        <v>1.017778337409303</v>
+        <v>1.0175829457151</v>
       </c>
       <c r="E13">
-        <v>1.015940184252026</v>
+        <v>1.016054821912843</v>
       </c>
       <c r="F13">
-        <v>1.0264998721923</v>
+        <v>1.026578160819848</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047340725347886</v>
+        <v>1.047304389631456</v>
       </c>
       <c r="J13">
-        <v>1.027567204709449</v>
+        <v>1.027701054887396</v>
       </c>
       <c r="K13">
-        <v>1.032529760724229</v>
+        <v>1.032337933027923</v>
       </c>
       <c r="L13">
-        <v>1.03072520658518</v>
+        <v>1.030837744191925</v>
       </c>
       <c r="M13">
-        <v>1.041094006384464</v>
+        <v>1.041170898822429</v>
       </c>
       <c r="N13">
-        <v>1.013147998882147</v>
+        <v>1.015097878757572</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042182737515017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042243522821608</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021121439795806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9985459686107685</v>
+        <v>0.9986290577763453</v>
       </c>
       <c r="D14">
-        <v>1.018341147587412</v>
+        <v>1.018079135934311</v>
       </c>
       <c r="E14">
-        <v>1.016625619066138</v>
+        <v>1.016693332342622</v>
       </c>
       <c r="F14">
-        <v>1.027306693727627</v>
+        <v>1.027347608361237</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047624060322254</v>
+        <v>1.047548939880728</v>
       </c>
       <c r="J14">
-        <v>1.028015103052299</v>
+        <v>1.0280947167193</v>
       </c>
       <c r="K14">
-        <v>1.032941798499732</v>
+        <v>1.032684507151534</v>
       </c>
       <c r="L14">
-        <v>1.03125723376524</v>
+        <v>1.031323722300676</v>
       </c>
       <c r="M14">
-        <v>1.041747705390819</v>
+        <v>1.041787899783321</v>
       </c>
       <c r="N14">
-        <v>1.013312375762144</v>
+        <v>1.015141648141874</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042872388655531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042904159010023</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021200910591314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9989690587244069</v>
+        <v>0.9990230652408315</v>
       </c>
       <c r="D15">
-        <v>1.01863798916987</v>
+        <v>1.018341952111454</v>
       </c>
       <c r="E15">
-        <v>1.01696433983484</v>
+        <v>1.017008262111519</v>
       </c>
       <c r="F15">
-        <v>1.027666750759066</v>
+        <v>1.027688583255734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04775957210751</v>
+        <v>1.047664540622176</v>
       </c>
       <c r="J15">
-        <v>1.028233440129116</v>
+        <v>1.028285207123687</v>
       </c>
       <c r="K15">
-        <v>1.033146751933771</v>
+        <v>1.032856007972255</v>
       </c>
       <c r="L15">
-        <v>1.031503079855722</v>
+        <v>1.031546213788927</v>
       </c>
       <c r="M15">
-        <v>1.042015977822743</v>
+        <v>1.042037428945477</v>
       </c>
       <c r="N15">
-        <v>1.013388389318284</v>
+        <v>1.015152814685941</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04312188459245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043138839492159</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021237296320783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001209891074464</v>
+        <v>1.00112302499612</v>
       </c>
       <c r="D16">
-        <v>1.020186541605616</v>
+        <v>1.019723264377089</v>
       </c>
       <c r="E16">
-        <v>1.018641767310714</v>
+        <v>1.018571460831155</v>
       </c>
       <c r="F16">
-        <v>1.029281485054046</v>
+        <v>1.029211033189218</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04840772672507</v>
+        <v>1.048214988350886</v>
       </c>
       <c r="J16">
-        <v>1.029298956172339</v>
+        <v>1.029215514199089</v>
       </c>
       <c r="K16">
-        <v>1.034165005978049</v>
+        <v>1.033709652452583</v>
       </c>
       <c r="L16">
-        <v>1.032646689123769</v>
+        <v>1.032577589255318</v>
       </c>
       <c r="M16">
-        <v>1.04310625467657</v>
+        <v>1.043036979920465</v>
       </c>
       <c r="N16">
-        <v>1.013739606509434</v>
+        <v>1.015190760665112</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043945011158621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.043890255055169</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021405270012662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002519354945903</v>
+        <v>1.002361235366352</v>
       </c>
       <c r="D17">
-        <v>1.021081327036895</v>
+        <v>1.020530056194103</v>
       </c>
       <c r="E17">
-        <v>1.019570777500839</v>
+        <v>1.019443000170507</v>
       </c>
       <c r="F17">
-        <v>1.03009334599789</v>
+        <v>1.029976118886717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04875405296279</v>
+        <v>1.048510445338098</v>
       </c>
       <c r="J17">
-        <v>1.029881061140929</v>
+        <v>1.029728976215048</v>
       </c>
       <c r="K17">
-        <v>1.034729552143135</v>
+        <v>1.034187446294197</v>
       </c>
       <c r="L17">
-        <v>1.03324414625061</v>
+        <v>1.033118500223771</v>
       </c>
       <c r="M17">
-        <v>1.043593531028616</v>
+        <v>1.043478208241997</v>
       </c>
       <c r="N17">
-        <v>1.013922562130868</v>
+        <v>1.015225205611753</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044201450562968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.044110288167954</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021492975957176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003142878526358</v>
+        <v>1.002958321624265</v>
       </c>
       <c r="D18">
-        <v>1.021487604864512</v>
+        <v>1.020902408173232</v>
       </c>
       <c r="E18">
-        <v>1.019918438681243</v>
+        <v>1.019769832199303</v>
       </c>
       <c r="F18">
-        <v>1.030243032926588</v>
+        <v>1.030108417846979</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048865241784928</v>
+        <v>1.048602067238926</v>
       </c>
       <c r="J18">
-        <v>1.030087675255116</v>
+        <v>1.029910031123293</v>
       </c>
       <c r="K18">
-        <v>1.03494546321228</v>
+        <v>1.034369835962472</v>
       </c>
       <c r="L18">
-        <v>1.033401988684083</v>
+        <v>1.033255820577615</v>
       </c>
       <c r="M18">
-        <v>1.04355938222629</v>
+        <v>1.043426919509292</v>
       </c>
       <c r="N18">
-        <v>1.013972326583216</v>
+        <v>1.015218772884108</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043937423741974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.043832690560002</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021515116028292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003137308892578</v>
+        <v>1.002962317341286</v>
       </c>
       <c r="D19">
-        <v>1.021444214009305</v>
+        <v>1.020870834732946</v>
       </c>
       <c r="E19">
-        <v>1.019727682738545</v>
+        <v>1.019587748487302</v>
       </c>
       <c r="F19">
-        <v>1.029778625282822</v>
+        <v>1.029650359821207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048760565638015</v>
+        <v>1.048503857275161</v>
       </c>
       <c r="J19">
-        <v>1.029948376750748</v>
+        <v>1.029779901404479</v>
       </c>
       <c r="K19">
-        <v>1.034840165848301</v>
+        <v>1.034276113614791</v>
       </c>
       <c r="L19">
-        <v>1.033151597265663</v>
+        <v>1.033013947909722</v>
       </c>
       <c r="M19">
-        <v>1.043040505837076</v>
+        <v>1.042914282640772</v>
       </c>
       <c r="N19">
-        <v>1.013900835132641</v>
+        <v>1.015154959641671</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043202630098303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.043102797846457</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02147609754709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,93 +1447,111 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001382701205221</v>
+        <v>1.001314645592947</v>
       </c>
       <c r="D20">
-        <v>1.020154688352126</v>
+        <v>1.019717749978417</v>
       </c>
       <c r="E20">
-        <v>1.018059010148189</v>
+        <v>1.018007887784107</v>
       </c>
       <c r="F20">
-        <v>1.02766157336596</v>
+        <v>1.02760420030002</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048066500651762</v>
+        <v>1.047886974168727</v>
       </c>
       <c r="J20">
-        <v>1.028860425896955</v>
+        <v>1.028794983751191</v>
       </c>
       <c r="K20">
-        <v>1.033852163947642</v>
+        <v>1.033422526438732</v>
       </c>
       <c r="L20">
-        <v>1.031791576282504</v>
+        <v>1.031741312250913</v>
       </c>
       <c r="M20">
-        <v>1.041234862023678</v>
+        <v>1.041178429237848</v>
       </c>
       <c r="N20">
-        <v>1.013497883463274</v>
+        <v>1.014926614254896</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041247768476033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.041203107955254</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021270639578673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.997179436013393</v>
+        <v>0.9973928737831383</v>
       </c>
       <c r="D21">
-        <v>1.017231323658945</v>
+        <v>1.017123942680104</v>
       </c>
       <c r="E21">
-        <v>1.014824671660029</v>
+        <v>1.015004641239924</v>
       </c>
       <c r="F21">
-        <v>1.024443076807604</v>
+        <v>1.024571622780734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046803207767314</v>
+        <v>1.046816939809849</v>
       </c>
       <c r="J21">
-        <v>1.026795559029956</v>
+        <v>1.027000003739902</v>
       </c>
       <c r="K21">
-        <v>1.031893435224044</v>
+        <v>1.031788000228146</v>
       </c>
       <c r="L21">
-        <v>1.029530525740698</v>
+        <v>1.029707214913455</v>
       </c>
       <c r="M21">
-        <v>1.038975707177927</v>
+        <v>1.039101966671124</v>
       </c>
       <c r="N21">
-        <v>1.012802887287571</v>
+        <v>1.01486275474998</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03941904749652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.03951897356313</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02094168848528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9945126660851523</v>
+        <v>0.9949032863727069</v>
       </c>
       <c r="D22">
-        <v>1.015383999822046</v>
+        <v>1.015484113997732</v>
       </c>
       <c r="E22">
-        <v>1.012797075183985</v>
+        <v>1.013122427939413</v>
       </c>
       <c r="F22">
-        <v>1.02245074510824</v>
+        <v>1.022696287324969</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046001644584317</v>
+        <v>1.046136635447654</v>
       </c>
       <c r="J22">
-        <v>1.025495607447424</v>
+        <v>1.025868820727948</v>
       </c>
       <c r="K22">
-        <v>1.030656735334199</v>
+        <v>1.030754944293156</v>
       </c>
       <c r="L22">
-        <v>1.028119211975686</v>
+        <v>1.028438333470327</v>
       </c>
       <c r="M22">
-        <v>1.037590193336565</v>
+        <v>1.037831147549807</v>
       </c>
       <c r="N22">
-        <v>1.012367198626252</v>
+        <v>1.014818653039044</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038322503700919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.038513203358153</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02073303819241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9959311426041676</v>
+        <v>0.9962170192782325</v>
       </c>
       <c r="D23">
-        <v>1.016366232987996</v>
+        <v>1.0163477848595</v>
       </c>
       <c r="E23">
-        <v>1.013874838441391</v>
+        <v>1.014114077277198</v>
       </c>
       <c r="F23">
-        <v>1.023509621353133</v>
+        <v>1.023686035913039</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046428848527507</v>
+        <v>1.046493649600062</v>
       </c>
       <c r="J23">
-        <v>1.026187233570698</v>
+        <v>1.026460741006235</v>
       </c>
       <c r="K23">
-        <v>1.031314827455692</v>
+        <v>1.031296721488008</v>
       </c>
       <c r="L23">
-        <v>1.02886978834776</v>
+        <v>1.029104562952615</v>
       </c>
       <c r="M23">
-        <v>1.038326932525563</v>
+        <v>1.038500135054499</v>
       </c>
       <c r="N23">
-        <v>1.012599002247659</v>
+        <v>1.014800555857214</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038905584902998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.039042663382751</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020841813170129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001411735908807</v>
+        <v>1.001343194643427</v>
       </c>
       <c r="D24">
-        <v>1.020169185453009</v>
+        <v>1.019731700817099</v>
       </c>
       <c r="E24">
-        <v>1.018054766866687</v>
+        <v>1.01800336698331</v>
       </c>
       <c r="F24">
-        <v>1.027619388884776</v>
+        <v>1.027561719187509</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048060700423456</v>
+        <v>1.04788080755818</v>
       </c>
       <c r="J24">
-        <v>1.028855550308074</v>
+        <v>1.028789637250442</v>
       </c>
       <c r="K24">
-        <v>1.033851129532775</v>
+        <v>1.033420945255923</v>
       </c>
       <c r="L24">
-        <v>1.031772069424179</v>
+        <v>1.031721531435425</v>
       </c>
       <c r="M24">
-        <v>1.041178237289268</v>
+        <v>1.041121511624621</v>
       </c>
       <c r="N24">
-        <v>1.013493302259144</v>
+        <v>1.01491913828684</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041162202911938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.041117308391516</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021267568544522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007568707313416</v>
+        <v>1.007245710631967</v>
       </c>
       <c r="D25">
-        <v>1.024455853775698</v>
+        <v>1.023659152136923</v>
       </c>
       <c r="E25">
-        <v>1.022781263909424</v>
+        <v>1.022522361740513</v>
       </c>
       <c r="F25">
-        <v>1.032272718628385</v>
+        <v>1.032045914642405</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049854146616297</v>
+        <v>1.049476375355853</v>
       </c>
       <c r="J25">
-        <v>1.031844011699117</v>
+        <v>1.031531664229169</v>
       </c>
       <c r="K25">
-        <v>1.036686026049274</v>
+        <v>1.035900965670419</v>
       </c>
       <c r="L25">
-        <v>1.035035931644848</v>
+        <v>1.034780825719345</v>
       </c>
       <c r="M25">
-        <v>1.044389878948683</v>
+        <v>1.044166323439245</v>
       </c>
       <c r="N25">
-        <v>1.014494831607378</v>
+        <v>1.015601448543261</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043703995161613</v>
+        <v>1.043527066725277</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02176497545857</v>
       </c>
     </row>
   </sheetData>
